--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3128713.2341442</v>
+        <v>3130532.505835239</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717229</v>
+        <v>430763.7823717228</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8503162.117821218</v>
+        <v>8503162.117821217</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>189.4958819596436</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>67.00501170135014</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.2565028661213</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>191.9058375680589</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13.40110646040576</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.2420339516666</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.21022140383137</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>61.62261354176275</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>46.19557701279876</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>26.50594853071681</v>
       </c>
       <c r="Y6" t="n">
-        <v>135.1041822809835</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>142.3870695882587</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>11.21959608876246</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>46.03875198149544</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>14.736584465029</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.473304884933202</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>8.436106212589191</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>96.16748096863262</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>137.1751068685207</v>
+        <v>21.9576513856758</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081967</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876464</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>144.5885597026575</v>
+        <v>235.3383763160167</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081967</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876464</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1785,7 +1785,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1824,13 +1824,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>116.5207243326805</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>21.36691228967368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081967</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1903,13 +1903,13 @@
         <v>250.9088959876461</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>64.44601915223832</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>64.44601915223835</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081967</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876464</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>64.44601915223832</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>64.44601915223835</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081973</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>64.44601915223832</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2532,7 +2532,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>210.177480908705</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>81.37259901119292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>17.8603136270168</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2772,7 +2772,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>54.79181287784859</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3006,7 +3006,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>210.177480908705</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>92.44182715867294</v>
       </c>
       <c r="H34" t="n">
-        <v>120.2114209380373</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>64.44601915223838</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>36.53032011471353</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081967</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.43427371450322</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876463</v>
+        <v>250.908895987647</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>76.61502530558695</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>64.44601915223832</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9088959876463</v>
+        <v>250.908895987647</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>49.82219399891306</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.4828310325022</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.4074064933379</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="C2" t="n">
-        <v>522.4074064933379</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="D2" t="n">
-        <v>256.5063620977151</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="E2" t="n">
-        <v>256.5063620977151</v>
+        <v>507.0435464894678</v>
       </c>
       <c r="F2" t="n">
-        <v>249.5608613485116</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="G2" t="n">
         <v>234.1970013446415</v>
@@ -4354,28 +4354,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>985.2863058053026</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>776.2844283306432</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T2" t="n">
-        <v>776.2844283306432</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="U2" t="n">
-        <v>522.4074064933379</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="V2" t="n">
-        <v>522.4074064933379</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="W2" t="n">
-        <v>522.4074064933379</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="X2" t="n">
-        <v>522.4074064933379</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.4074064933379</v>
+        <v>698.4535282668857</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>845.1166356011336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C3" t="n">
-        <v>670.6636063200066</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D3" t="n">
-        <v>521.7291966587553</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4917416532998</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F3" t="n">
-        <v>215.9571836801848</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G3" t="n">
-        <v>215.9571836801848</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
@@ -4415,19 +4415,19 @@
         <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>394.933760794076</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="M3" t="n">
-        <v>524.903632156528</v>
+        <v>339.9440834239258</v>
       </c>
       <c r="N3" t="n">
-        <v>524.903632156528</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O3" t="n">
-        <v>785.3166962490201</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
@@ -4445,16 +4445,16 @@
         <v>1052.968135806666</v>
       </c>
       <c r="V3" t="n">
-        <v>1052.968135806666</v>
+        <v>859.1238554348897</v>
       </c>
       <c r="W3" t="n">
-        <v>1052.968135806666</v>
+        <v>604.8864987066881</v>
       </c>
       <c r="X3" t="n">
-        <v>845.1166356011336</v>
+        <v>397.0349985011553</v>
       </c>
       <c r="Y3" t="n">
-        <v>845.1166356011336</v>
+        <v>189.2746997362014</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>34.59583388826036</v>
       </c>
       <c r="F4" t="n">
         <v>21.05936271613333</v>
@@ -4527,13 +4527,13 @@
         <v>182.5089274706535</v>
       </c>
       <c r="W4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>306.4627520174971</v>
+        <v>579.3092971623234</v>
       </c>
       <c r="C5" t="n">
-        <v>306.4627520174971</v>
+        <v>313.4082527667006</v>
       </c>
       <c r="D5" t="n">
-        <v>306.4627520174971</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="E5" t="n">
-        <v>306.4627520174971</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="F5" t="n">
         <v>40.56170762187429</v>
@@ -4591,28 +4591,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S5" t="n">
-        <v>843.966258332007</v>
+        <v>845.2103415579463</v>
       </c>
       <c r="T5" t="n">
-        <v>619.0259954159469</v>
+        <v>845.2103415579463</v>
       </c>
       <c r="U5" t="n">
-        <v>619.0259954159469</v>
+        <v>845.2103415579463</v>
       </c>
       <c r="V5" t="n">
-        <v>619.0259954159469</v>
+        <v>845.2103415579463</v>
       </c>
       <c r="W5" t="n">
-        <v>572.3637964131199</v>
+        <v>845.2103415579463</v>
       </c>
       <c r="X5" t="n">
-        <v>306.4627520174971</v>
+        <v>845.2103415579463</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.4627520174971</v>
+        <v>845.2103415579463</v>
       </c>
     </row>
     <row r="6">
@@ -4652,43 +4652,43 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L6" t="n">
-        <v>261.6628906109958</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="M6" t="n">
-        <v>522.2725042231457</v>
+        <v>281.6689763282832</v>
       </c>
       <c r="N6" t="n">
-        <v>524.9036321565281</v>
+        <v>542.2785899404332</v>
       </c>
       <c r="O6" t="n">
-        <v>785.3166962490202</v>
+        <v>802.6916540329253</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271187</v>
+        <v>994.6930287110238</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X6" t="n">
-        <v>954.9030226480426</v>
+        <v>1026.194450422104</v>
       </c>
       <c r="Y6" t="n">
         <v>818.4341516571501</v>
@@ -4704,28 +4704,28 @@
         <v>182.5089274706534</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706534</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="D7" t="n">
-        <v>32.39228805831763</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="E7" t="n">
-        <v>32.39228805831763</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="F7" t="n">
-        <v>32.39228805831763</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="G7" t="n">
-        <v>32.39228805831763</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="H7" t="n">
-        <v>32.39228805831763</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="I7" t="n">
-        <v>32.39228805831763</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="J7" t="n">
-        <v>32.39228805831763</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="K7" t="n">
         <v>21.05936271613333</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.31500045437309</v>
+        <v>439.5449639215224</v>
       </c>
       <c r="C8" t="n">
-        <v>93.31500045437309</v>
+        <v>439.5449639215224</v>
       </c>
       <c r="D8" t="n">
-        <v>93.31500045437309</v>
+        <v>439.5449639215224</v>
       </c>
       <c r="E8" t="n">
-        <v>93.31500045437309</v>
+        <v>53.7567113232781</v>
       </c>
       <c r="F8" t="n">
-        <v>46.81121057407466</v>
+        <v>46.81121057407462</v>
       </c>
       <c r="G8" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="H8" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="I8" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="J8" t="n">
-        <v>67.66699237151749</v>
+        <v>67.66699237151738</v>
       </c>
       <c r="K8" t="n">
-        <v>241.9786214193929</v>
+        <v>241.9786214193928</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5042384841158</v>
+        <v>510.5042384841153</v>
       </c>
       <c r="M8" t="n">
-        <v>825.8972722888593</v>
+        <v>825.8972722888585</v>
       </c>
       <c r="N8" t="n">
-        <v>1131.761697568016</v>
+        <v>1131.761697568015</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.393163234509</v>
+        <v>1375.393163234507</v>
       </c>
       <c r="P8" t="n">
-        <v>1545.652599660157</v>
+        <v>1545.652599660155</v>
       </c>
       <c r="Q8" t="n">
-        <v>1596.288586025501</v>
+        <v>1596.288586025498</v>
       </c>
       <c r="R8" t="n">
-        <v>1596.288586025501</v>
+        <v>1589.749894222536</v>
       </c>
       <c r="S8" t="n">
-        <v>1596.288586025501</v>
+        <v>1589.749894222536</v>
       </c>
       <c r="T8" t="n">
-        <v>1596.288586025501</v>
+        <v>1589.749894222536</v>
       </c>
       <c r="U8" t="n">
-        <v>1596.288586025501</v>
+        <v>1589.749894222536</v>
       </c>
       <c r="V8" t="n">
-        <v>1596.288586025501</v>
+        <v>1589.749894222536</v>
       </c>
       <c r="W8" t="n">
-        <v>1243.519930755386</v>
+        <v>1589.749894222536</v>
       </c>
       <c r="X8" t="n">
-        <v>870.0541724943066</v>
+        <v>1216.284135961456</v>
       </c>
       <c r="Y8" t="n">
-        <v>479.9148405184949</v>
+        <v>826.1448039856441</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>661.0852236414588</v>
+        <v>523.0719850749995</v>
       </c>
       <c r="C9" t="n">
-        <v>486.6321943603318</v>
+        <v>348.6189557938725</v>
       </c>
       <c r="D9" t="n">
-        <v>337.6977846990806</v>
+        <v>199.6845461326212</v>
       </c>
       <c r="E9" t="n">
-        <v>178.460329693625</v>
+        <v>40.44709112716572</v>
       </c>
       <c r="F9" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="G9" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="H9" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="I9" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="J9" t="n">
-        <v>59.51961820537323</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="K9" t="n">
-        <v>233.3027400460181</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="L9" t="n">
-        <v>528.3799898168548</v>
+        <v>327.0030214913464</v>
       </c>
       <c r="M9" t="n">
-        <v>533.5180518372224</v>
+        <v>722.0844465326572</v>
       </c>
       <c r="N9" t="n">
-        <v>928.5994768785338</v>
+        <v>1036.27465440283</v>
       </c>
       <c r="O9" t="n">
-        <v>1248.704208289599</v>
+        <v>1356.379385813895</v>
       </c>
       <c r="P9" t="n">
-        <v>1488.613408501203</v>
+        <v>1596.288586025498</v>
       </c>
       <c r="Q9" t="n">
-        <v>1596.288586025501</v>
+        <v>1596.288586025498</v>
       </c>
       <c r="R9" t="n">
-        <v>1596.288586025501</v>
+        <v>1596.288586025498</v>
       </c>
       <c r="S9" t="n">
-        <v>1596.288586025501</v>
+        <v>1596.288586025498</v>
       </c>
       <c r="T9" t="n">
-        <v>1596.288586025501</v>
+        <v>1596.288586025498</v>
       </c>
       <c r="U9" t="n">
-        <v>1499.149716360215</v>
+        <v>1596.288586025498</v>
       </c>
       <c r="V9" t="n">
-        <v>1499.149716360215</v>
+        <v>1361.136477793756</v>
       </c>
       <c r="W9" t="n">
-        <v>1244.912359632013</v>
+        <v>1106.899121065554</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.060859426481</v>
+        <v>899.0476208600214</v>
       </c>
       <c r="Y9" t="n">
-        <v>829.3005606615268</v>
+        <v>691.2873220950676</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.4864857291168</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="C10" t="n">
-        <v>31.92577172051001</v>
+        <v>329.9555047152388</v>
       </c>
       <c r="D10" t="n">
-        <v>31.92577172051001</v>
+        <v>179.8388653029031</v>
       </c>
       <c r="E10" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="F10" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="G10" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="H10" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="I10" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="J10" t="n">
-        <v>31.92577172051001</v>
+        <v>31.92577172050997</v>
       </c>
       <c r="K10" t="n">
-        <v>39.08908224095563</v>
+        <v>39.08908224095549</v>
       </c>
       <c r="L10" t="n">
-        <v>103.7820880685944</v>
+        <v>103.7820880685941</v>
       </c>
       <c r="M10" t="n">
-        <v>182.3809151796119</v>
+        <v>182.3809151796115</v>
       </c>
       <c r="N10" t="n">
-        <v>264.5454542807992</v>
+        <v>264.5454542807986</v>
       </c>
       <c r="O10" t="n">
-        <v>324.4214093422733</v>
+        <v>324.4214093422726</v>
       </c>
       <c r="P10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="Q10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="R10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="S10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="T10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="U10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="V10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="W10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="X10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.1349505593565</v>
+        <v>352.1349505593558</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127628</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H11" t="n">
         <v>93.84834815160704</v>
@@ -5041,28 +5041,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580352</v>
@@ -5123,19 +5123,19 @@
         <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L12" t="n">
         <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.75575956269</v>
+        <v>1512.132872870354</v>
       </c>
       <c r="N12" t="n">
-        <v>2006.935879695572</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P12" t="n">
         <v>2553.812354695766</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9822234696675</v>
+        <v>949.3053695472213</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9822234696675</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8655840573317</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9524904749386</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.242309074625</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.563526789007</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="U13" t="n">
-        <v>1880.514476584302</v>
+        <v>2123.837622661856</v>
       </c>
       <c r="V13" t="n">
-        <v>1625.829988378415</v>
+        <v>1869.153134455969</v>
       </c>
       <c r="W13" t="n">
-        <v>1336.412818341455</v>
+        <v>1579.735964419008</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.423267443437</v>
+        <v>1351.746413520991</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.6306882999072</v>
+        <v>1130.953834377461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
         <v>380.275713812763</v>
@@ -5278,10 +5278,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015209</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892027</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L14" t="n">
         <v>1513.293909294977</v>
@@ -5311,19 +5311,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668117</v>
+        <v>429.3821857744751</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310563</v>
+        <v>920.1145186182265</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.75575956269</v>
+        <v>1512.132872870354</v>
       </c>
       <c r="N15" t="n">
-        <v>2006.935879695572</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.5320614616468</v>
+        <v>699.941846848844</v>
       </c>
       <c r="C16" t="n">
-        <v>783.5958785337399</v>
+        <v>699.941846848844</v>
       </c>
       <c r="D16" t="n">
-        <v>633.4792391214041</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="E16" t="n">
-        <v>485.566145539011</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5463,25 +5463,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T16" t="n">
-        <v>2209.733717050076</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U16" t="n">
-        <v>1920.657503364803</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V16" t="n">
-        <v>1665.973015158916</v>
+        <v>1619.789611757592</v>
       </c>
       <c r="W16" t="n">
-        <v>1376.555845121956</v>
+        <v>1330.372441720631</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.973105435417</v>
+        <v>1102.382890822614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.180526291887</v>
+        <v>881.5903116790837</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
         <v>1949.298676890959</v>
@@ -5515,25 +5515,25 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q17" t="n">
         <v>4566.333620403614</v>
@@ -5551,7 +5551,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
         <v>3468.466124132384</v>
@@ -5560,7 +5560,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5597,13 +5597,13 @@
         <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L18" t="n">
         <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.75575956269</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
         <v>2276.851722962027</v>
@@ -5655,16 +5655,16 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160704</v>
@@ -5673,10 +5673,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L19" t="n">
         <v>820.2210160948589</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831372</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F20" t="n">
         <v>794.2588208963566</v>
@@ -5752,28 +5752,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580352</v>
@@ -5797,7 +5797,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895494</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L21" t="n">
-        <v>1063.776437885085</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N21" t="n">
-        <v>2277.890755536549</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O21" t="n">
         <v>2553.812354695766</v>
@@ -5898,10 +5898,10 @@
         <v>326.1595320196932</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H22" t="n">
         <v>93.84834815160704</v>
@@ -5910,10 +5910,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L22" t="n">
         <v>820.2210160948589</v>
@@ -5977,10 +5977,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160704</v>
@@ -5989,22 +5989,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>424.1437450015209</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287892027</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
         <v>4202.751434297607</v>
@@ -6065,22 +6065,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L24" t="n">
-        <v>1063.776437885085</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
         <v>2553.812354695766</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160704</v>
@@ -6147,10 +6147,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948589</v>
@@ -6180,19 +6180,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507198</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384016</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6302,22 +6302,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>1063.776437885085</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>2277.890755536549</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
         <v>2553.812354695766</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476001</v>
+        <v>970.5727822970172</v>
       </c>
       <c r="C28" t="n">
-        <v>326.1595320196932</v>
+        <v>801.6365993691103</v>
       </c>
       <c r="D28" t="n">
-        <v>176.0428926073575</v>
+        <v>651.5199599567745</v>
       </c>
       <c r="E28" t="n">
-        <v>93.84834815160703</v>
+        <v>503.6068663743814</v>
       </c>
       <c r="F28" t="n">
-        <v>93.84834815160703</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6420,16 +6420,16 @@
         <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856348</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819387</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213699</v>
+        <v>1152.221247127257</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778398</v>
+        <v>1152.221247127257</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127627</v>
@@ -6460,13 +6460,13 @@
         <v>93.84834815160684</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>424.14374500152</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892018</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L29" t="n">
         <v>1513.293909294976</v>
@@ -6539,22 +6539,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>1063.776437885085</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
         <v>2553.812354695766</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.8714428665047</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C31" t="n">
-        <v>402.9352599385978</v>
+        <v>621.3989142446594</v>
       </c>
       <c r="D31" t="n">
-        <v>402.9352599385978</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E31" t="n">
-        <v>402.9352599385978</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385978</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6654,19 +6654,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
         <v>1949.298676890959</v>
@@ -6691,43 +6691,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.8483481516073</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6745,7 +6745,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>474.5240650264088</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>965.2563978701601</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>965.2563978701601</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N33" t="n">
-        <v>1587.352361269496</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.1719286328732</v>
+        <v>714.774497233218</v>
       </c>
       <c r="C34" t="n">
-        <v>615.2357457049663</v>
+        <v>714.774497233218</v>
       </c>
       <c r="D34" t="n">
-        <v>465.1191062926306</v>
+        <v>564.6578578208822</v>
       </c>
       <c r="E34" t="n">
-        <v>465.1191062926306</v>
+        <v>416.7447642384891</v>
       </c>
       <c r="F34" t="n">
-        <v>465.1191062926306</v>
+        <v>269.8548167405787</v>
       </c>
       <c r="G34" t="n">
-        <v>297.9049114672094</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H34" t="n">
         <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
         <v>172.8304710411609</v>
@@ -6888,22 +6888,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747508</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U34" t="n">
-        <v>1958.704181747508</v>
+        <v>1889.306750347853</v>
       </c>
       <c r="V34" t="n">
-        <v>1704.019693541621</v>
+        <v>1634.622262141966</v>
       </c>
       <c r="W34" t="n">
-        <v>1414.60252350466</v>
+        <v>1345.205092105005</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.612972606643</v>
+        <v>1117.215541206988</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.820393463113</v>
+        <v>896.4229620634577</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q35" t="n">
         <v>4566.333620403613</v>
@@ -7013,25 +7013,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>474.5240650264088</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>965.2563978701601</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>965.2563978701601</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.352361269496</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
         <v>2553.812354695766</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>744.6035248193385</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196932</v>
+        <v>575.6673418914316</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1595320196932</v>
+        <v>425.5507024790959</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0625429770282</v>
+        <v>277.6376088967028</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0625429770282</v>
+        <v>130.7476613987924</v>
       </c>
       <c r="G37" t="n">
         <v>93.84834815160703</v>
@@ -7119,28 +7119,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831372</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127639</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160795</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015214</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892034</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294978</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234016</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151122</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.44548561026</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026521</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746071</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.2347794025</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132386</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871306</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895494</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L39" t="n">
-        <v>965.2563978701601</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>965.2563978701601</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.352361269496</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O39" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
         <v>2553.812354695766</v>
@@ -7311,31 +7311,31 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E40" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="F40" t="n">
-        <v>326.1595320196932</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G40" t="n">
-        <v>158.945337194272</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7402,52 +7402,52 @@
         <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U41" t="n">
         <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
         <v>3468.466124132384</v>
@@ -7484,28 +7484,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L42" t="n">
-        <v>965.2563978701601</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>965.2563978701601</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N42" t="n">
-        <v>1587.352361269496</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O42" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
         <v>2553.812354695766</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>562.9550599890988</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D43" t="n">
-        <v>562.9550599890988</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E43" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F43" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948589</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
         <v>1591.032978284208</v>
@@ -7636,64 +7636,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J44" t="n">
-        <v>424.14374500152</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287892018</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J45" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L45" t="n">
-        <v>1063.776437885085</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N45" t="n">
-        <v>1655.794792137213</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O45" t="n">
-        <v>2202.671267137407</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
         <v>2553.812354695766</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.5128849845607</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C46" t="n">
-        <v>784.5128849845607</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D46" t="n">
-        <v>634.396245572225</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="E46" t="n">
-        <v>486.4831519898319</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F46" t="n">
-        <v>339.5932044919215</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G46" t="n">
         <v>176.4792337520202</v>
@@ -7803,13 +7803,13 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L46" t="n">
         <v>820.2210160948589</v>
@@ -7830,28 +7830,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T46" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V46" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W46" t="n">
-        <v>1414.943479856348</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X46" t="n">
-        <v>1186.953928958331</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y46" t="n">
-        <v>966.1613498148005</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>127.806478742992</v>
       </c>
       <c r="M3" t="n">
-        <v>260.8744387036293</v>
+        <v>317.0804782614679</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>381.7094952808119</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N6" t="n">
-        <v>121.12516631236</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>192.5268253278641</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>98.21846313347639</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>88.92673010283644</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>70.5713342471888</v>
+        <v>464.4535191168288</v>
       </c>
       <c r="N9" t="n">
-        <v>451.6297827178985</v>
+        <v>369.9214825450315</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>101.3144821557504</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909182</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q17" t="n">
-        <v>51.31264782909176</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>51.31264782908983</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782909113</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.31264782909227</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>141.5968918457629</v>
+        <v>50.84707523240371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>135.6169189911475</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>204.3427430993635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>84.16945386597403</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00797063971557</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>80.97502887069292</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>76.00797063971557</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>80.97502887069292</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>76.00797063971547</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>65.06136363537625</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>127.5607343959144</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.4550082207792</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>76.00797063971547</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>73.10022571849399</v>
       </c>
       <c r="H34" t="n">
-        <v>20.24256885391658</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>81.98794349433079</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>129.0117327624534</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>135.986774308428</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>69.81893734098222</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>80.97502887069292</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.61176864765611</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>4.059221844664677</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712968.1663206618</v>
+        <v>712968.1663206617</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712968.1663206617</v>
+        <v>712968.1663206614</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712968.1663206617</v>
+        <v>712968.1663206615</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712968.1663206617</v>
+        <v>712968.1663206615</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712968.1663206617</v>
+        <v>712968.1663206618</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712968.1663206618</v>
+        <v>712968.1663206615</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712968.1663206617</v>
+        <v>712968.1663206615</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>705847.6049787386</v>
+        <v>705847.6049787389</v>
       </c>
       <c r="F2" t="n">
-        <v>705847.6049787392</v>
+        <v>705847.6049787388</v>
       </c>
       <c r="G2" t="n">
+        <v>705847.6049787389</v>
+      </c>
+      <c r="H2" t="n">
         <v>705847.6049787391</v>
       </c>
-      <c r="H2" t="n">
-        <v>705847.6049787392</v>
-      </c>
       <c r="I2" t="n">
-        <v>705847.6049787393</v>
+        <v>705847.6049787389</v>
       </c>
       <c r="J2" t="n">
-        <v>705847.6049787393</v>
+        <v>705847.6049787389</v>
       </c>
       <c r="K2" t="n">
-        <v>705847.6049787391</v>
+        <v>705847.6049787387</v>
       </c>
       <c r="L2" t="n">
-        <v>705847.6049787393</v>
+        <v>705847.6049787389</v>
       </c>
       <c r="M2" t="n">
         <v>705847.6049787387</v>
       </c>
       <c r="N2" t="n">
-        <v>705847.6049787393</v>
+        <v>705847.6049787389</v>
       </c>
       <c r="O2" t="n">
-        <v>705847.6049787392</v>
+        <v>705847.6049787391</v>
       </c>
       <c r="P2" t="n">
-        <v>705847.6049787392</v>
+        <v>705847.6049787389</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143093.1975581087</v>
+        <v>143093.1975581081</v>
       </c>
       <c r="E3" t="n">
-        <v>1209019.537077497</v>
+        <v>1209019.537077498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34377.37901658379</v>
+        <v>34377.37901658361</v>
       </c>
       <c r="M3" t="n">
-        <v>192891.9217116887</v>
+        <v>192891.9217116889</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.583978508743136e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>354753.502998367</v>
       </c>
       <c r="C4" t="n">
-        <v>354753.5029983671</v>
+        <v>354753.502998367</v>
       </c>
       <c r="D4" t="n">
-        <v>312563.8135151854</v>
+        <v>312563.8135151856</v>
       </c>
       <c r="E4" t="n">
-        <v>7918.14029743173</v>
+        <v>7918.140297431679</v>
       </c>
       <c r="F4" t="n">
-        <v>7918.14029743173</v>
+        <v>7918.140297431684</v>
       </c>
       <c r="G4" t="n">
-        <v>7918.140297431727</v>
+        <v>7918.140297431664</v>
       </c>
       <c r="H4" t="n">
-        <v>7918.140297431729</v>
+        <v>7918.140297431606</v>
       </c>
       <c r="I4" t="n">
-        <v>7918.140297431729</v>
+        <v>7918.140297431623</v>
       </c>
       <c r="J4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431686</v>
       </c>
       <c r="K4" t="n">
-        <v>7918.140297431715</v>
+        <v>7918.140297431702</v>
       </c>
       <c r="L4" t="n">
-        <v>7918.140297431728</v>
+        <v>7918.140297431686</v>
       </c>
       <c r="M4" t="n">
-        <v>7918.140297431713</v>
+        <v>7918.140297431671</v>
       </c>
       <c r="N4" t="n">
-        <v>7918.140297431773</v>
+        <v>7918.140297431664</v>
       </c>
       <c r="O4" t="n">
-        <v>7918.140297431713</v>
+        <v>7918.14029743172</v>
       </c>
       <c r="P4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.14029743172</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>60961.29296005018</v>
+        <v>60961.29296005014</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572386</v>
@@ -26499,19 +26499,19 @@
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>203129.1833510982</v>
       </c>
       <c r="C6" t="n">
-        <v>313523.6382260478</v>
+        <v>313523.6382260475</v>
       </c>
       <c r="D6" t="n">
-        <v>201793.2445979033</v>
+        <v>201793.2445979039</v>
       </c>
       <c r="E6" t="n">
-        <v>-612379.0816720715</v>
+        <v>-612056.0088352934</v>
       </c>
       <c r="F6" t="n">
-        <v>596640.4554054259</v>
+        <v>596963.5282422042</v>
       </c>
       <c r="G6" t="n">
-        <v>596640.4554054257</v>
+        <v>596963.5282422045</v>
       </c>
       <c r="H6" t="n">
-        <v>596640.4554054259</v>
+        <v>596963.5282422046</v>
       </c>
       <c r="I6" t="n">
-        <v>596640.455405426</v>
+        <v>596963.5282422045</v>
       </c>
       <c r="J6" t="n">
-        <v>527764.7566741762</v>
+        <v>528087.8295109546</v>
       </c>
       <c r="K6" t="n">
-        <v>596640.4554054257</v>
+        <v>596963.5282422041</v>
       </c>
       <c r="L6" t="n">
-        <v>562263.0763888422</v>
+        <v>562586.1492256207</v>
       </c>
       <c r="M6" t="n">
-        <v>403748.5336937366</v>
+        <v>404071.6065305152</v>
       </c>
       <c r="N6" t="n">
-        <v>596640.455405426</v>
+        <v>596963.5282422042</v>
       </c>
       <c r="O6" t="n">
-        <v>596640.4554054259</v>
+        <v>596963.5282422045</v>
       </c>
       <c r="P6" t="n">
-        <v>596640.4554054259</v>
+        <v>596963.5282422043</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>23.01338268678931</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8305712138797</v>
+        <v>140.8305712138792</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26795,7 +26795,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>399.0721465063751</v>
+        <v>399.0721465063746</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8171885270904</v>
+        <v>117.8171885270899</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.210477502506</v>
+        <v>1217.210477502507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.8301125547085</v>
+        <v>135.830112554708</v>
       </c>
       <c r="E4" t="n">
-        <v>774.0322053887129</v>
+        <v>774.0322053887135</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,13 +27041,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547087</v>
+        <v>135.830112554708</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887127</v>
+        <v>774.0322053887135</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547085</v>
+        <v>135.830112554708</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887129</v>
+        <v>774.0322053887135</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>192.4344881126181</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.05259106312</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>6.500870911164711</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,16 +27517,16 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>40.89474958136637</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>132.0199415625255</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.6879292296161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6340117900448</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>145.2892451581501</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
         <v>251.3382516189322</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>303.0453917046142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>179.2670366727607</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.57851349632082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>24.85975151036916</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27800,7 +27800,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>6.228403429953714</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>360.837293760216</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>114.3055064074256</v>
+        <v>107.8322015224925</v>
       </c>
       <c r="S8" t="n">
-        <v>196.1188569569537</v>
+        <v>196.1188569569538</v>
       </c>
       <c r="T8" t="n">
         <v>220.6175145872921</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>136.6331061807947</v>
       </c>
       <c r="G9" t="n">
         <v>137.0405985760713</v>
@@ -27952,7 +27952,7 @@
         <v>109.3098884080723</v>
       </c>
       <c r="I9" t="n">
-        <v>78.96719903982115</v>
+        <v>78.9671990398212</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.35030994411784</v>
+        <v>81.3503099441179</v>
       </c>
       <c r="S9" t="n">
         <v>166.056591206755</v>
@@ -27988,10 +27988,10 @@
         <v>198.9437542142032</v>
       </c>
       <c r="U9" t="n">
-        <v>129.7539722579251</v>
+        <v>225.9214532265578</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>30.07171423010709</v>
+        <v>145.289169712952</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>147.8133023112663</v>
       </c>
       <c r="J10" t="n">
-        <v>75.40443663584749</v>
+        <v>75.40443663584756</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.89662699839855</v>
+        <v>64.89662699839863</v>
       </c>
       <c r="R10" t="n">
         <v>165.8745716194015</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-5.485841352254167e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28812,13 +28812,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-9.552581682777405e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29037,13 +29037,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1.093619975311941e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29052,10 +29052,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-6.440674018558035e-14</v>
       </c>
     </row>
     <row r="24">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5661530501060485</v>
+        <v>0.5661530501060467</v>
       </c>
       <c r="H8" t="n">
-        <v>5.798114924398572</v>
+        <v>5.798114924398551</v>
       </c>
       <c r="I8" t="n">
-        <v>21.82661546421346</v>
+        <v>21.82661546421339</v>
       </c>
       <c r="J8" t="n">
-        <v>48.05153243643829</v>
+        <v>48.05153243643812</v>
       </c>
       <c r="K8" t="n">
-        <v>72.01679104742733</v>
+        <v>72.01679104742709</v>
       </c>
       <c r="L8" t="n">
-        <v>89.34319745461033</v>
+        <v>89.34319745461003</v>
       </c>
       <c r="M8" t="n">
-        <v>99.41152175943378</v>
+        <v>99.41152175943344</v>
       </c>
       <c r="N8" t="n">
-        <v>101.0201041130476</v>
+        <v>101.0201041130473</v>
       </c>
       <c r="O8" t="n">
-        <v>95.39041972105557</v>
+        <v>95.39041972105524</v>
       </c>
       <c r="P8" t="n">
-        <v>81.41351629656248</v>
+        <v>81.41351629656221</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.1381601896396</v>
+        <v>61.13816018963939</v>
       </c>
       <c r="R8" t="n">
-        <v>35.56361153372411</v>
+        <v>35.56361153372399</v>
       </c>
       <c r="S8" t="n">
-        <v>12.9012126292916</v>
+        <v>12.90121262929155</v>
       </c>
       <c r="T8" t="n">
-        <v>2.478334976839229</v>
+        <v>2.47833497683922</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04529224400848388</v>
+        <v>0.04529224400848372</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3029185871392884</v>
+        <v>0.3029185871392874</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92555582842418</v>
+        <v>2.925555828424171</v>
       </c>
       <c r="I9" t="n">
-        <v>10.42943381159392</v>
+        <v>10.42943381159389</v>
       </c>
       <c r="J9" t="n">
-        <v>28.61916353319041</v>
+        <v>28.61916353319031</v>
       </c>
       <c r="K9" t="n">
-        <v>48.91470887152273</v>
+        <v>48.91470887152256</v>
       </c>
       <c r="L9" t="n">
-        <v>65.77186252776524</v>
+        <v>65.77186252776501</v>
       </c>
       <c r="M9" t="n">
-        <v>76.75266131156442</v>
+        <v>76.75266131156415</v>
       </c>
       <c r="N9" t="n">
-        <v>78.78407587180993</v>
+        <v>78.78407587180966</v>
       </c>
       <c r="O9" t="n">
-        <v>72.07203770414463</v>
+        <v>72.07203770414439</v>
       </c>
       <c r="P9" t="n">
-        <v>57.84416424065938</v>
+        <v>57.84416424065919</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.66729193027128</v>
+        <v>38.66729193027114</v>
       </c>
       <c r="R9" t="n">
-        <v>18.8075242085253</v>
+        <v>18.80752420852523</v>
       </c>
       <c r="S9" t="n">
-        <v>5.626579897082832</v>
+        <v>5.626579897082812</v>
       </c>
       <c r="T9" t="n">
-        <v>1.220974480618447</v>
+        <v>1.220974480618443</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01992885441705846</v>
+        <v>0.01992885441705839</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2539567677627338</v>
+        <v>0.253956767762733</v>
       </c>
       <c r="H10" t="n">
-        <v>2.257906535199581</v>
+        <v>2.257906535199573</v>
       </c>
       <c r="I10" t="n">
-        <v>7.637172615992035</v>
+        <v>7.637172615992008</v>
       </c>
       <c r="J10" t="n">
-        <v>17.95474348082528</v>
+        <v>17.95474348082522</v>
       </c>
       <c r="K10" t="n">
-        <v>29.50515901825216</v>
+        <v>29.50515901825206</v>
       </c>
       <c r="L10" t="n">
-        <v>37.75644527265227</v>
+        <v>37.75644527265214</v>
       </c>
       <c r="M10" t="n">
-        <v>39.8088776957529</v>
+        <v>39.80887769575276</v>
       </c>
       <c r="N10" t="n">
-        <v>38.86231156136456</v>
+        <v>38.86231156136443</v>
       </c>
       <c r="O10" t="n">
-        <v>35.89563477431807</v>
+        <v>35.89563477431794</v>
       </c>
       <c r="P10" t="n">
-        <v>30.71491671195827</v>
+        <v>30.71491671195816</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.26541625329583</v>
+        <v>21.26541625329576</v>
       </c>
       <c r="R10" t="n">
-        <v>11.41881975776801</v>
+        <v>11.41881975776797</v>
       </c>
       <c r="S10" t="n">
-        <v>4.425773852737824</v>
+        <v>4.425773852737809</v>
       </c>
       <c r="T10" t="n">
-        <v>1.085088007713499</v>
+        <v>1.085088007713495</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01385218733251277</v>
+        <v>0.01385218733251272</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31834,7 +31834,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,19 +31846,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>596.068849638979</v>
       </c>
       <c r="N12" t="n">
-        <v>487.0792071670522</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31916,7 +31916,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31925,16 +31925,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31946,7 +31946,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32071,7 +32071,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>327.6251317733712</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0792071670522</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32153,7 +32153,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32162,16 +32162,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32183,7 +32183,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32308,7 +32308,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32320,16 +32320,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169088</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32390,7 +32390,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32399,16 +32399,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32420,7 +32420,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32545,10 +32545,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>275.9770021735818</v>
@@ -32557,16 +32557,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>421.3049304638558</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32627,7 +32627,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32636,16 +32636,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32657,7 +32657,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32782,10 +32782,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
@@ -32794,16 +32794,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>486.0296793139992</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32864,7 +32864,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32873,16 +32873,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32894,7 +32894,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
         <v>0.436756920190194</v>
@@ -33019,10 +33019,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>275.9770021735818</v>
@@ -33031,16 +33031,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>421.3049304638558</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
         <v>0.1921756201013754</v>
@@ -33101,7 +33101,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
         <v>173.1391022273333</v>
@@ -33110,16 +33110,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
         <v>296.1865264282424</v>
@@ -33131,7 +33131,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33256,10 +33256,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>275.9770021735818</v>
@@ -33268,16 +33268,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>486.0296793139992</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33338,7 +33338,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33347,16 +33347,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33368,7 +33368,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K32" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S32" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U32" t="n">
         <v>0.436756920190194</v>
@@ -33493,31 +33493,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>372.1734617505542</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U33" t="n">
         <v>0.1921756201013754</v>
@@ -33575,7 +33575,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J34" t="n">
         <v>173.1391022273333</v>
@@ -33584,16 +33584,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P34" t="n">
         <v>296.1865264282424</v>
@@ -33605,7 +33605,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T34" t="n">
         <v>10.46359496551969</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33730,31 +33730,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>372.1734617505542</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33812,7 +33812,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33821,16 +33821,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33842,7 +33842,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33967,10 +33967,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
@@ -33979,19 +33979,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>534.7284129403043</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34049,7 +34049,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34058,16 +34058,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34079,7 +34079,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34204,10 +34204,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>275.9770021735818</v>
@@ -34216,19 +34216,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>534.7284129403043</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34286,7 +34286,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34295,16 +34295,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34316,7 +34316,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
         <v>0.436756920190194</v>
@@ -34441,10 +34441,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
@@ -34453,19 +34453,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P45" t="n">
-        <v>488.6623746449961</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
         <v>0.1921756201013754</v>
@@ -34523,7 +34523,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
         <v>173.1391022273333</v>
@@ -34532,16 +34532,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
         <v>296.1865264282424</v>
@@ -34553,7 +34553,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -34783,13 +34783,13 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131.2826983459112</v>
+        <v>187.4887379037498</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833253</v>
@@ -34798,7 +34798,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>2.657704983214605</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
         <v>263.0434990833253</v>
@@ -35035,7 +35035,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903812</v>
+        <v>58.86374454105316</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36.10224308182577</v>
+        <v>36.10224308182561</v>
       </c>
       <c r="K8" t="n">
-        <v>176.0723525736115</v>
+        <v>176.0723525736113</v>
       </c>
       <c r="L8" t="n">
-        <v>271.2379970350735</v>
+        <v>271.2379970350732</v>
       </c>
       <c r="M8" t="n">
-        <v>318.5788220249935</v>
+        <v>318.5788220249932</v>
       </c>
       <c r="N8" t="n">
-        <v>308.9539649284408</v>
+        <v>308.9539649284405</v>
       </c>
       <c r="O8" t="n">
-        <v>246.0923895621142</v>
+        <v>246.0923895621139</v>
       </c>
       <c r="P8" t="n">
-        <v>171.9792287127756</v>
+        <v>171.9792287127753</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.14746097509479</v>
+        <v>51.14746097509458</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.87257220693255</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>175.5385069097423</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>298.0578280513502</v>
+        <v>298.05782805135</v>
       </c>
       <c r="M9" t="n">
-        <v>5.189961636734905</v>
+        <v>399.0721465063746</v>
       </c>
       <c r="N9" t="n">
-        <v>399.0721465063751</v>
+        <v>317.3638463335079</v>
       </c>
       <c r="O9" t="n">
-        <v>323.3381125364297</v>
+        <v>323.3381125364295</v>
       </c>
       <c r="P9" t="n">
-        <v>242.3325254662663</v>
+        <v>242.3325254662661</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.7628055800989</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.235667192369309</v>
+        <v>7.23566719236921</v>
       </c>
       <c r="L10" t="n">
-        <v>65.34647053296841</v>
+        <v>65.34647053296828</v>
       </c>
       <c r="M10" t="n">
-        <v>79.39275465759349</v>
+        <v>79.39275465759334</v>
       </c>
       <c r="N10" t="n">
-        <v>82.99448394059316</v>
+        <v>82.99448394059303</v>
       </c>
       <c r="O10" t="n">
-        <v>60.48076268835774</v>
+        <v>60.48076268835761</v>
       </c>
       <c r="P10" t="n">
-        <v>27.99347597685176</v>
+        <v>27.99347597685165</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>178.6700086136759</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>453.9348157169607</v>
       </c>
       <c r="N12" t="n">
-        <v>355.7374950837189</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35576,19 +35576,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898119</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>189.7836927990122</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>355.7374950837189</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35813,19 +35813,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q17" t="n">
-        <v>418.5673812695028</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>279.7582138724644</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36050,19 +36050,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136759</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>149.1393755069151</v>
@@ -36205,16 +36205,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>278.7086860194114</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36287,19 +36287,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>333.6317139898119</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
@@ -36442,16 +36442,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>354.6879672306659</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36524,19 +36524,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>149.1393755069151</v>
@@ -36679,16 +36679,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>278.7086860194114</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
         <v>262.2512393642057</v>
@@ -36761,19 +36761,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.6317139898113</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>149.1393755069151</v>
@@ -36916,16 +36916,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>354.6879672306659</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36998,19 +36998,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L32" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M32" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136759</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>234.3320227761953</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K34" t="n">
         <v>262.2512393642057</v>
@@ -37235,19 +37235,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N34" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>779.6000841311491</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>234.3320227761953</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37472,19 +37472,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898125</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
@@ -37627,19 +37627,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>396.1740331604302</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37709,19 +37709,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>779.6000841311491</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>149.1393755069151</v>
@@ -37864,19 +37864,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>396.1740331604302</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37946,19 +37946,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.631713989811</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
@@ -38101,19 +38101,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P45" t="n">
-        <v>354.6879672306659</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
         <v>262.2512393642057</v>
@@ -38183,19 +38183,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
